--- a/data/문화 데이터셋/서울 공공도서관/마포구.xlsx
+++ b/data/문화 데이터셋/서울 공공도서관/마포구.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\당일업무\정보공개청구\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\서울 공공도서관\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D973C7F2-FA5F-4371-99FA-18E242513754}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3647D412-3F15-484D-BF21-C43A34000C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22785" windowHeight="8595" tabRatio="376" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="376" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="공공도서관현황" sheetId="1" r:id="rId1"/>
-    <sheet name="번호.(자치구명) 도서관명" sheetId="2" r:id="rId2"/>
+    <sheet name="마포구" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4698,14 +4708,14 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4716,20 +4726,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -5249,21 +5259,21 @@
       <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" style="1" customWidth="1"/>
     <col min="3" max="4" width="8.75" style="6"/>
-    <col min="5" max="5" width="14.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="6" customWidth="1"/>
     <col min="6" max="9" width="8.75" style="6"/>
     <col min="10" max="10" width="47" style="1" customWidth="1"/>
-    <col min="11" max="11" width="47.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="39.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="1" customWidth="1"/>
     <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16384" s="24" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="25" t="s">
         <v>1112</v>
       </c>
@@ -23441,7 +23451,7 @@
       <c r="XFC1" s="26"/>
       <c r="XFD1" s="26"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -24609,7 +24619,7 @@
       <c r="WVU2" s="23"/>
       <c r="WVV2" s="23"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A3" s="28">
         <v>2</v>
       </c>
@@ -24895,7 +24905,7 @@
       <c r="IU3" s="22"/>
       <c r="IV3" s="22"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A4" s="28">
         <v>3</v>
       </c>
@@ -25181,7 +25191,7 @@
       <c r="IU4" s="22"/>
       <c r="IV4" s="22"/>
     </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A5" s="28">
         <v>4</v>
       </c>
@@ -25467,7 +25477,7 @@
       <c r="IU5" s="22"/>
       <c r="IV5" s="22"/>
     </row>
-    <row r="6" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A6" s="28">
         <v>5</v>
       </c>
@@ -25753,7 +25763,7 @@
       <c r="IU6" s="22"/>
       <c r="IV6" s="22"/>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A7" s="28">
         <v>6</v>
       </c>
@@ -26039,7 +26049,7 @@
       <c r="IU7" s="22"/>
       <c r="IV7" s="22"/>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A8" s="28">
         <v>7</v>
       </c>
@@ -26325,7 +26335,7 @@
       <c r="IU8" s="22"/>
       <c r="IV8" s="22"/>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A9" s="28">
         <v>8</v>
       </c>
@@ -26611,7 +26621,7 @@
       <c r="IU9" s="22"/>
       <c r="IV9" s="22"/>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A10" s="28">
         <v>9</v>
       </c>
@@ -26897,7 +26907,7 @@
       <c r="IU10" s="22"/>
       <c r="IV10" s="22"/>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A11" s="28">
         <v>10</v>
       </c>
@@ -27183,7 +27193,7 @@
       <c r="IU11" s="22"/>
       <c r="IV11" s="22"/>
     </row>
-    <row r="12" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A12" s="28">
         <v>11</v>
       </c>
@@ -27469,7 +27479,7 @@
       <c r="IU12" s="22"/>
       <c r="IV12" s="22"/>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A13" s="28">
         <v>12</v>
       </c>
@@ -27755,7 +27765,7 @@
       <c r="IU13" s="22"/>
       <c r="IV13" s="22"/>
     </row>
-    <row r="14" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A14" s="28">
         <v>13</v>
       </c>
@@ -28041,7 +28051,7 @@
       <c r="IU14" s="22"/>
       <c r="IV14" s="22"/>
     </row>
-    <row r="15" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A15" s="28">
         <v>14</v>
       </c>
@@ -28327,7 +28337,7 @@
       <c r="IU15" s="22"/>
       <c r="IV15" s="22"/>
     </row>
-    <row r="16" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16384" x14ac:dyDescent="0.45">
       <c r="A16" s="28">
         <v>15</v>
       </c>
@@ -28613,7 +28623,7 @@
       <c r="IU16" s="22"/>
       <c r="IV16" s="22"/>
     </row>
-    <row r="17" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A17" s="28">
         <v>16</v>
       </c>
@@ -28899,7 +28909,7 @@
       <c r="IU17" s="22"/>
       <c r="IV17" s="22"/>
     </row>
-    <row r="18" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A18" s="28">
         <v>17</v>
       </c>
@@ -29185,7 +29195,7 @@
       <c r="IU18" s="22"/>
       <c r="IV18" s="22"/>
     </row>
-    <row r="19" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A19" s="28">
         <v>18</v>
       </c>
@@ -29471,7 +29481,7 @@
       <c r="IU19" s="22"/>
       <c r="IV19" s="22"/>
     </row>
-    <row r="20" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A20" s="28">
         <v>19</v>
       </c>
@@ -29757,7 +29767,7 @@
       <c r="IU20" s="22"/>
       <c r="IV20" s="22"/>
     </row>
-    <row r="21" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A21" s="28">
         <v>20</v>
       </c>
@@ -30043,7 +30053,7 @@
       <c r="IU21" s="22"/>
       <c r="IV21" s="22"/>
     </row>
-    <row r="22" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A22" s="28">
         <v>21</v>
       </c>
@@ -30329,7 +30339,7 @@
       <c r="IU22" s="22"/>
       <c r="IV22" s="22"/>
     </row>
-    <row r="23" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A23" s="28">
         <v>22</v>
       </c>
@@ -30615,7 +30625,7 @@
       <c r="IU23" s="22"/>
       <c r="IV23" s="22"/>
     </row>
-    <row r="24" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A24" s="28">
         <v>23</v>
       </c>
@@ -30901,7 +30911,7 @@
       <c r="IU24" s="22"/>
       <c r="IV24" s="22"/>
     </row>
-    <row r="25" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A25" s="28">
         <v>24</v>
       </c>
@@ -31187,7 +31197,7 @@
       <c r="IU25" s="22"/>
       <c r="IV25" s="22"/>
     </row>
-    <row r="26" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A26" s="28">
         <v>25</v>
       </c>
@@ -31473,7 +31483,7 @@
       <c r="IU26" s="22"/>
       <c r="IV26" s="22"/>
     </row>
-    <row r="27" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -31759,7 +31769,7 @@
       <c r="IU27" s="22"/>
       <c r="IV27" s="22"/>
     </row>
-    <row r="28" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A28" s="28">
         <v>27</v>
       </c>
@@ -32045,7 +32055,7 @@
       <c r="IU28" s="22"/>
       <c r="IV28" s="22"/>
     </row>
-    <row r="29" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -32331,7 +32341,7 @@
       <c r="IU29" s="22"/>
       <c r="IV29" s="22"/>
     </row>
-    <row r="30" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A30" s="28">
         <v>29</v>
       </c>
@@ -32617,7 +32627,7 @@
       <c r="IU30" s="22"/>
       <c r="IV30" s="22"/>
     </row>
-    <row r="31" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -32903,7 +32913,7 @@
       <c r="IU31" s="22"/>
       <c r="IV31" s="22"/>
     </row>
-    <row r="32" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A32" s="28">
         <v>31</v>
       </c>
@@ -33189,7 +33199,7 @@
       <c r="IU32" s="22"/>
       <c r="IV32" s="22"/>
     </row>
-    <row r="33" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A33" s="28">
         <v>32</v>
       </c>
@@ -33475,7 +33485,7 @@
       <c r="IU33" s="22"/>
       <c r="IV33" s="22"/>
     </row>
-    <row r="34" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A34" s="28">
         <v>33</v>
       </c>
@@ -33761,7 +33771,7 @@
       <c r="IU34" s="22"/>
       <c r="IV34" s="22"/>
     </row>
-    <row r="35" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A35" s="28">
         <v>34</v>
       </c>
@@ -34047,7 +34057,7 @@
       <c r="IU35" s="22"/>
       <c r="IV35" s="22"/>
     </row>
-    <row r="36" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A36" s="28">
         <v>35</v>
       </c>
@@ -34333,7 +34343,7 @@
       <c r="IU36" s="22"/>
       <c r="IV36" s="22"/>
     </row>
-    <row r="37" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A37" s="28">
         <v>36</v>
       </c>
@@ -34619,7 +34629,7 @@
       <c r="IU37" s="22"/>
       <c r="IV37" s="22"/>
     </row>
-    <row r="38" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A38" s="28">
         <v>37</v>
       </c>
@@ -34905,7 +34915,7 @@
       <c r="IU38" s="22"/>
       <c r="IV38" s="22"/>
     </row>
-    <row r="39" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A39" s="28">
         <v>38</v>
       </c>
@@ -35191,7 +35201,7 @@
       <c r="IU39" s="22"/>
       <c r="IV39" s="22"/>
     </row>
-    <row r="40" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A40" s="28">
         <v>39</v>
       </c>
@@ -35477,7 +35487,7 @@
       <c r="IU40" s="22"/>
       <c r="IV40" s="22"/>
     </row>
-    <row r="41" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A41" s="28">
         <v>40</v>
       </c>
@@ -35763,7 +35773,7 @@
       <c r="IU41" s="22"/>
       <c r="IV41" s="22"/>
     </row>
-    <row r="42" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A42" s="28">
         <v>41</v>
       </c>
@@ -36049,7 +36059,7 @@
       <c r="IU42" s="22"/>
       <c r="IV42" s="22"/>
     </row>
-    <row r="43" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A43" s="28">
         <v>42</v>
       </c>
@@ -36335,7 +36345,7 @@
       <c r="IU43" s="22"/>
       <c r="IV43" s="22"/>
     </row>
-    <row r="44" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A44" s="28">
         <v>43</v>
       </c>
@@ -36621,7 +36631,7 @@
       <c r="IU44" s="22"/>
       <c r="IV44" s="22"/>
     </row>
-    <row r="45" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A45" s="28">
         <v>44</v>
       </c>
@@ -36907,7 +36917,7 @@
       <c r="IU45" s="22"/>
       <c r="IV45" s="22"/>
     </row>
-    <row r="46" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A46" s="28">
         <v>45</v>
       </c>
@@ -37193,7 +37203,7 @@
       <c r="IU46" s="22"/>
       <c r="IV46" s="22"/>
     </row>
-    <row r="47" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A47" s="28">
         <v>46</v>
       </c>
@@ -37479,7 +37489,7 @@
       <c r="IU47" s="22"/>
       <c r="IV47" s="22"/>
     </row>
-    <row r="48" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A48" s="28">
         <v>47</v>
       </c>
@@ -37765,7 +37775,7 @@
       <c r="IU48" s="22"/>
       <c r="IV48" s="22"/>
     </row>
-    <row r="49" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A49" s="28">
         <v>48</v>
       </c>
@@ -38051,7 +38061,7 @@
       <c r="IU49" s="22"/>
       <c r="IV49" s="22"/>
     </row>
-    <row r="50" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A50" s="28">
         <v>49</v>
       </c>
@@ -38337,7 +38347,7 @@
       <c r="IU50" s="22"/>
       <c r="IV50" s="22"/>
     </row>
-    <row r="51" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A51" s="28">
         <v>50</v>
       </c>
@@ -38623,7 +38633,7 @@
       <c r="IU51" s="22"/>
       <c r="IV51" s="22"/>
     </row>
-    <row r="52" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A52" s="28">
         <v>51</v>
       </c>
@@ -38909,7 +38919,7 @@
       <c r="IU52" s="22"/>
       <c r="IV52" s="22"/>
     </row>
-    <row r="53" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A53" s="28">
         <v>52</v>
       </c>
@@ -39195,7 +39205,7 @@
       <c r="IU53" s="22"/>
       <c r="IV53" s="22"/>
     </row>
-    <row r="54" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A54" s="28">
         <v>53</v>
       </c>
@@ -39481,7 +39491,7 @@
       <c r="IU54" s="22"/>
       <c r="IV54" s="22"/>
     </row>
-    <row r="55" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A55" s="28">
         <v>54</v>
       </c>
@@ -39767,7 +39777,7 @@
       <c r="IU55" s="22"/>
       <c r="IV55" s="22"/>
     </row>
-    <row r="56" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A56" s="28">
         <v>55</v>
       </c>
@@ -40053,7 +40063,7 @@
       <c r="IU56" s="22"/>
       <c r="IV56" s="22"/>
     </row>
-    <row r="57" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A57" s="28">
         <v>56</v>
       </c>
@@ -40339,7 +40349,7 @@
       <c r="IU57" s="22"/>
       <c r="IV57" s="22"/>
     </row>
-    <row r="58" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A58" s="28">
         <v>57</v>
       </c>
@@ -40625,7 +40635,7 @@
       <c r="IU58" s="22"/>
       <c r="IV58" s="22"/>
     </row>
-    <row r="59" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A59" s="28">
         <v>58</v>
       </c>
@@ -40911,7 +40921,7 @@
       <c r="IU59" s="22"/>
       <c r="IV59" s="22"/>
     </row>
-    <row r="60" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A60" s="28">
         <v>59</v>
       </c>
@@ -41197,7 +41207,7 @@
       <c r="IU60" s="22"/>
       <c r="IV60" s="22"/>
     </row>
-    <row r="61" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A61" s="28">
         <v>60</v>
       </c>
@@ -41483,7 +41493,7 @@
       <c r="IU61" s="22"/>
       <c r="IV61" s="22"/>
     </row>
-    <row r="62" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A62" s="28">
         <v>61</v>
       </c>
@@ -41769,7 +41779,7 @@
       <c r="IU62" s="22"/>
       <c r="IV62" s="22"/>
     </row>
-    <row r="63" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A63" s="28">
         <v>62</v>
       </c>
@@ -42055,7 +42065,7 @@
       <c r="IU63" s="22"/>
       <c r="IV63" s="22"/>
     </row>
-    <row r="64" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A64" s="28">
         <v>63</v>
       </c>
@@ -42341,7 +42351,7 @@
       <c r="IU64" s="22"/>
       <c r="IV64" s="22"/>
     </row>
-    <row r="65" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A65" s="28">
         <v>64</v>
       </c>
@@ -42627,7 +42637,7 @@
       <c r="IU65" s="22"/>
       <c r="IV65" s="22"/>
     </row>
-    <row r="66" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A66" s="28">
         <v>65</v>
       </c>
@@ -42913,7 +42923,7 @@
       <c r="IU66" s="22"/>
       <c r="IV66" s="22"/>
     </row>
-    <row r="67" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A67" s="28">
         <v>66</v>
       </c>
@@ -43199,7 +43209,7 @@
       <c r="IU67" s="22"/>
       <c r="IV67" s="22"/>
     </row>
-    <row r="68" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A68" s="28">
         <v>67</v>
       </c>
@@ -43485,7 +43495,7 @@
       <c r="IU68" s="22"/>
       <c r="IV68" s="22"/>
     </row>
-    <row r="69" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A69" s="28">
         <v>68</v>
       </c>
@@ -43771,7 +43781,7 @@
       <c r="IU69" s="22"/>
       <c r="IV69" s="22"/>
     </row>
-    <row r="70" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A70" s="28">
         <v>69</v>
       </c>
@@ -44057,7 +44067,7 @@
       <c r="IU70" s="22"/>
       <c r="IV70" s="22"/>
     </row>
-    <row r="71" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A71" s="28">
         <v>70</v>
       </c>
@@ -44343,7 +44353,7 @@
       <c r="IU71" s="22"/>
       <c r="IV71" s="22"/>
     </row>
-    <row r="72" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A72" s="28">
         <v>71</v>
       </c>
@@ -44629,7 +44639,7 @@
       <c r="IU72" s="22"/>
       <c r="IV72" s="22"/>
     </row>
-    <row r="73" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A73" s="28">
         <v>72</v>
       </c>
@@ -44915,7 +44925,7 @@
       <c r="IU73" s="22"/>
       <c r="IV73" s="22"/>
     </row>
-    <row r="74" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A74" s="28">
         <v>73</v>
       </c>
@@ -45201,7 +45211,7 @@
       <c r="IU74" s="22"/>
       <c r="IV74" s="22"/>
     </row>
-    <row r="75" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A75" s="28">
         <v>74</v>
       </c>
@@ -45487,7 +45497,7 @@
       <c r="IU75" s="22"/>
       <c r="IV75" s="22"/>
     </row>
-    <row r="76" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A76" s="28">
         <v>75</v>
       </c>
@@ -45773,7 +45783,7 @@
       <c r="IU76" s="22"/>
       <c r="IV76" s="22"/>
     </row>
-    <row r="77" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A77" s="28">
         <v>76</v>
       </c>
@@ -46059,7 +46069,7 @@
       <c r="IU77" s="22"/>
       <c r="IV77" s="22"/>
     </row>
-    <row r="78" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A78" s="28">
         <v>77</v>
       </c>
@@ -46345,7 +46355,7 @@
       <c r="IU78" s="22"/>
       <c r="IV78" s="22"/>
     </row>
-    <row r="79" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A79" s="28">
         <v>78</v>
       </c>
@@ -46631,7 +46641,7 @@
       <c r="IU79" s="22"/>
       <c r="IV79" s="22"/>
     </row>
-    <row r="80" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A80" s="28">
         <v>79</v>
       </c>
@@ -46917,7 +46927,7 @@
       <c r="IU80" s="22"/>
       <c r="IV80" s="22"/>
     </row>
-    <row r="81" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A81" s="28">
         <v>80</v>
       </c>
@@ -47203,7 +47213,7 @@
       <c r="IU81" s="22"/>
       <c r="IV81" s="22"/>
     </row>
-    <row r="82" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A82" s="28">
         <v>81</v>
       </c>
@@ -47489,7 +47499,7 @@
       <c r="IU82" s="22"/>
       <c r="IV82" s="22"/>
     </row>
-    <row r="83" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A83" s="28">
         <v>82</v>
       </c>
@@ -47775,7 +47785,7 @@
       <c r="IU83" s="22"/>
       <c r="IV83" s="22"/>
     </row>
-    <row r="84" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A84" s="28">
         <v>83</v>
       </c>
@@ -48061,7 +48071,7 @@
       <c r="IU84" s="22"/>
       <c r="IV84" s="22"/>
     </row>
-    <row r="85" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A85" s="28">
         <v>84</v>
       </c>
@@ -48347,7 +48357,7 @@
       <c r="IU85" s="22"/>
       <c r="IV85" s="22"/>
     </row>
-    <row r="86" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A86" s="28">
         <v>85</v>
       </c>
@@ -48633,7 +48643,7 @@
       <c r="IU86" s="22"/>
       <c r="IV86" s="22"/>
     </row>
-    <row r="87" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A87" s="28">
         <v>86</v>
       </c>
@@ -48919,7 +48929,7 @@
       <c r="IU87" s="22"/>
       <c r="IV87" s="22"/>
     </row>
-    <row r="88" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A88" s="28">
         <v>87</v>
       </c>
@@ -49205,7 +49215,7 @@
       <c r="IU88" s="22"/>
       <c r="IV88" s="22"/>
     </row>
-    <row r="89" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A89" s="28">
         <v>88</v>
       </c>
@@ -49491,7 +49501,7 @@
       <c r="IU89" s="22"/>
       <c r="IV89" s="22"/>
     </row>
-    <row r="90" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A90" s="28">
         <v>89</v>
       </c>
@@ -49777,7 +49787,7 @@
       <c r="IU90" s="22"/>
       <c r="IV90" s="22"/>
     </row>
-    <row r="91" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A91" s="28">
         <v>90</v>
       </c>
@@ -50063,7 +50073,7 @@
       <c r="IU91" s="22"/>
       <c r="IV91" s="22"/>
     </row>
-    <row r="92" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A92" s="28">
         <v>91</v>
       </c>
@@ -50349,7 +50359,7 @@
       <c r="IU92" s="22"/>
       <c r="IV92" s="22"/>
     </row>
-    <row r="93" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A93" s="28">
         <v>92</v>
       </c>
@@ -50635,7 +50645,7 @@
       <c r="IU93" s="22"/>
       <c r="IV93" s="22"/>
     </row>
-    <row r="94" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A94" s="28">
         <v>93</v>
       </c>
@@ -50921,7 +50931,7 @@
       <c r="IU94" s="22"/>
       <c r="IV94" s="22"/>
     </row>
-    <row r="95" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A95" s="28">
         <v>94</v>
       </c>
@@ -51207,7 +51217,7 @@
       <c r="IU95" s="22"/>
       <c r="IV95" s="22"/>
     </row>
-    <row r="96" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A96" s="28">
         <v>95</v>
       </c>
@@ -51493,7 +51503,7 @@
       <c r="IU96" s="22"/>
       <c r="IV96" s="22"/>
     </row>
-    <row r="97" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A97" s="28">
         <v>96</v>
       </c>
@@ -51779,7 +51789,7 @@
       <c r="IU97" s="22"/>
       <c r="IV97" s="22"/>
     </row>
-    <row r="98" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A98" s="28">
         <v>97</v>
       </c>
@@ -52065,7 +52075,7 @@
       <c r="IU98" s="22"/>
       <c r="IV98" s="22"/>
     </row>
-    <row r="99" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A99" s="28">
         <v>98</v>
       </c>
@@ -52351,7 +52361,7 @@
       <c r="IU99" s="22"/>
       <c r="IV99" s="22"/>
     </row>
-    <row r="100" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A100" s="28">
         <v>99</v>
       </c>
@@ -52637,7 +52647,7 @@
       <c r="IU100" s="22"/>
       <c r="IV100" s="22"/>
     </row>
-    <row r="101" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A101" s="28">
         <v>100</v>
       </c>
@@ -52923,7 +52933,7 @@
       <c r="IU101" s="22"/>
       <c r="IV101" s="22"/>
     </row>
-    <row r="102" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A102" s="28">
         <v>101</v>
       </c>
@@ -53209,7 +53219,7 @@
       <c r="IU102" s="22"/>
       <c r="IV102" s="22"/>
     </row>
-    <row r="103" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A103" s="28">
         <v>102</v>
       </c>
@@ -53495,7 +53505,7 @@
       <c r="IU103" s="22"/>
       <c r="IV103" s="22"/>
     </row>
-    <row r="104" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A104" s="28">
         <v>103</v>
       </c>
@@ -53781,7 +53791,7 @@
       <c r="IU104" s="22"/>
       <c r="IV104" s="22"/>
     </row>
-    <row r="105" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A105" s="28">
         <v>104</v>
       </c>
@@ -54067,7 +54077,7 @@
       <c r="IU105" s="22"/>
       <c r="IV105" s="22"/>
     </row>
-    <row r="106" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A106" s="28">
         <v>105</v>
       </c>
@@ -54353,7 +54363,7 @@
       <c r="IU106" s="22"/>
       <c r="IV106" s="22"/>
     </row>
-    <row r="107" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A107" s="28">
         <v>106</v>
       </c>
@@ -54639,7 +54649,7 @@
       <c r="IU107" s="22"/>
       <c r="IV107" s="22"/>
     </row>
-    <row r="108" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A108" s="28">
         <v>107</v>
       </c>
@@ -54925,7 +54935,7 @@
       <c r="IU108" s="22"/>
       <c r="IV108" s="22"/>
     </row>
-    <row r="109" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A109" s="28">
         <v>108</v>
       </c>
@@ -55211,7 +55221,7 @@
       <c r="IU109" s="22"/>
       <c r="IV109" s="22"/>
     </row>
-    <row r="110" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A110" s="28">
         <v>109</v>
       </c>
@@ -55497,7 +55507,7 @@
       <c r="IU110" s="22"/>
       <c r="IV110" s="22"/>
     </row>
-    <row r="111" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A111" s="28">
         <v>110</v>
       </c>
@@ -55783,7 +55793,7 @@
       <c r="IU111" s="22"/>
       <c r="IV111" s="22"/>
     </row>
-    <row r="112" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A112" s="28">
         <v>111</v>
       </c>
@@ -56069,7 +56079,7 @@
       <c r="IU112" s="22"/>
       <c r="IV112" s="22"/>
     </row>
-    <row r="113" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A113" s="28">
         <v>112</v>
       </c>
@@ -56355,7 +56365,7 @@
       <c r="IU113" s="22"/>
       <c r="IV113" s="22"/>
     </row>
-    <row r="114" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A114" s="28">
         <v>113</v>
       </c>
@@ -56641,7 +56651,7 @@
       <c r="IU114" s="22"/>
       <c r="IV114" s="22"/>
     </row>
-    <row r="115" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A115" s="28">
         <v>114</v>
       </c>
@@ -56927,7 +56937,7 @@
       <c r="IU115" s="22"/>
       <c r="IV115" s="22"/>
     </row>
-    <row r="116" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A116" s="28">
         <v>115</v>
       </c>
@@ -57213,7 +57223,7 @@
       <c r="IU116" s="22"/>
       <c r="IV116" s="22"/>
     </row>
-    <row r="117" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A117" s="28">
         <v>116</v>
       </c>
@@ -57499,7 +57509,7 @@
       <c r="IU117" s="22"/>
       <c r="IV117" s="22"/>
     </row>
-    <row r="118" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A118" s="28">
         <v>117</v>
       </c>
@@ -57785,7 +57795,7 @@
       <c r="IU118" s="22"/>
       <c r="IV118" s="22"/>
     </row>
-    <row r="119" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A119" s="28">
         <v>118</v>
       </c>
@@ -58071,7 +58081,7 @@
       <c r="IU119" s="22"/>
       <c r="IV119" s="22"/>
     </row>
-    <row r="120" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A120" s="28">
         <v>119</v>
       </c>
@@ -58357,7 +58367,7 @@
       <c r="IU120" s="22"/>
       <c r="IV120" s="22"/>
     </row>
-    <row r="121" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A121" s="28">
         <v>120</v>
       </c>
@@ -58643,7 +58653,7 @@
       <c r="IU121" s="22"/>
       <c r="IV121" s="22"/>
     </row>
-    <row r="122" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A122" s="28">
         <v>121</v>
       </c>
@@ -58929,7 +58939,7 @@
       <c r="IU122" s="22"/>
       <c r="IV122" s="22"/>
     </row>
-    <row r="123" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A123" s="28">
         <v>122</v>
       </c>
@@ -59215,7 +59225,7 @@
       <c r="IU123" s="22"/>
       <c r="IV123" s="22"/>
     </row>
-    <row r="124" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A124" s="28">
         <v>123</v>
       </c>
@@ -59501,7 +59511,7 @@
       <c r="IU124" s="22"/>
       <c r="IV124" s="22"/>
     </row>
-    <row r="125" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A125" s="28">
         <v>124</v>
       </c>
@@ -59787,7 +59797,7 @@
       <c r="IU125" s="22"/>
       <c r="IV125" s="22"/>
     </row>
-    <row r="126" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A126" s="28">
         <v>125</v>
       </c>
@@ -60073,7 +60083,7 @@
       <c r="IU126" s="22"/>
       <c r="IV126" s="22"/>
     </row>
-    <row r="127" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A127" s="28">
         <v>126</v>
       </c>
@@ -60359,7 +60369,7 @@
       <c r="IU127" s="22"/>
       <c r="IV127" s="22"/>
     </row>
-    <row r="128" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A128" s="28">
         <v>127</v>
       </c>
@@ -60645,7 +60655,7 @@
       <c r="IU128" s="22"/>
       <c r="IV128" s="22"/>
     </row>
-    <row r="129" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A129" s="28">
         <v>128</v>
       </c>
@@ -60931,7 +60941,7 @@
       <c r="IU129" s="22"/>
       <c r="IV129" s="22"/>
     </row>
-    <row r="130" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A130" s="28">
         <v>129</v>
       </c>
@@ -61217,7 +61227,7 @@
       <c r="IU130" s="22"/>
       <c r="IV130" s="22"/>
     </row>
-    <row r="131" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A131" s="28">
         <v>130</v>
       </c>
@@ -61503,7 +61513,7 @@
       <c r="IU131" s="22"/>
       <c r="IV131" s="22"/>
     </row>
-    <row r="132" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A132" s="28">
         <v>131</v>
       </c>
@@ -61789,7 +61799,7 @@
       <c r="IU132" s="22"/>
       <c r="IV132" s="22"/>
     </row>
-    <row r="133" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A133" s="28">
         <v>132</v>
       </c>
@@ -62075,7 +62085,7 @@
       <c r="IU133" s="22"/>
       <c r="IV133" s="22"/>
     </row>
-    <row r="134" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A134" s="28">
         <v>133</v>
       </c>
@@ -62361,7 +62371,7 @@
       <c r="IU134" s="22"/>
       <c r="IV134" s="22"/>
     </row>
-    <row r="135" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A135" s="28">
         <v>134</v>
       </c>
@@ -62647,7 +62657,7 @@
       <c r="IU135" s="22"/>
       <c r="IV135" s="22"/>
     </row>
-    <row r="136" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A136" s="28">
         <v>135</v>
       </c>
@@ -62933,7 +62943,7 @@
       <c r="IU136" s="22"/>
       <c r="IV136" s="22"/>
     </row>
-    <row r="137" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A137" s="28">
         <v>136</v>
       </c>
@@ -63219,7 +63229,7 @@
       <c r="IU137" s="22"/>
       <c r="IV137" s="22"/>
     </row>
-    <row r="138" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A138" s="28">
         <v>137</v>
       </c>
@@ -63505,7 +63515,7 @@
       <c r="IU138" s="22"/>
       <c r="IV138" s="22"/>
     </row>
-    <row r="139" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A139" s="28">
         <v>138</v>
       </c>
@@ -63791,7 +63801,7 @@
       <c r="IU139" s="22"/>
       <c r="IV139" s="22"/>
     </row>
-    <row r="140" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A140" s="28">
         <v>139</v>
       </c>
@@ -64077,7 +64087,7 @@
       <c r="IU140" s="22"/>
       <c r="IV140" s="22"/>
     </row>
-    <row r="141" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A141" s="28">
         <v>140</v>
       </c>
@@ -64363,7 +64373,7 @@
       <c r="IU141" s="22"/>
       <c r="IV141" s="22"/>
     </row>
-    <row r="142" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A142" s="28">
         <v>141</v>
       </c>
@@ -64649,7 +64659,7 @@
       <c r="IU142" s="22"/>
       <c r="IV142" s="22"/>
     </row>
-    <row r="143" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A143" s="28">
         <v>142</v>
       </c>
@@ -64935,7 +64945,7 @@
       <c r="IU143" s="22"/>
       <c r="IV143" s="22"/>
     </row>
-    <row r="144" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A144" s="28">
         <v>143</v>
       </c>
@@ -65221,7 +65231,7 @@
       <c r="IU144" s="22"/>
       <c r="IV144" s="22"/>
     </row>
-    <row r="145" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A145" s="28">
         <v>144</v>
       </c>
@@ -65507,7 +65517,7 @@
       <c r="IU145" s="22"/>
       <c r="IV145" s="22"/>
     </row>
-    <row r="146" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A146" s="28">
         <v>145</v>
       </c>
@@ -65793,7 +65803,7 @@
       <c r="IU146" s="22"/>
       <c r="IV146" s="22"/>
     </row>
-    <row r="147" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A147" s="28">
         <v>146</v>
       </c>
@@ -66079,7 +66089,7 @@
       <c r="IU147" s="22"/>
       <c r="IV147" s="22"/>
     </row>
-    <row r="148" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A148" s="28">
         <v>147</v>
       </c>
@@ -66365,7 +66375,7 @@
       <c r="IU148" s="22"/>
       <c r="IV148" s="22"/>
     </row>
-    <row r="149" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A149" s="28">
         <v>148</v>
       </c>
@@ -66651,7 +66661,7 @@
       <c r="IU149" s="22"/>
       <c r="IV149" s="22"/>
     </row>
-    <row r="150" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A150" s="28">
         <v>149</v>
       </c>
@@ -66937,7 +66947,7 @@
       <c r="IU150" s="22"/>
       <c r="IV150" s="22"/>
     </row>
-    <row r="151" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A151" s="28">
         <v>150</v>
       </c>
@@ -67223,7 +67233,7 @@
       <c r="IU151" s="22"/>
       <c r="IV151" s="22"/>
     </row>
-    <row r="152" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A152" s="28">
         <v>151</v>
       </c>
@@ -67509,7 +67519,7 @@
       <c r="IU152" s="22"/>
       <c r="IV152" s="22"/>
     </row>
-    <row r="153" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A153" s="28">
         <v>152</v>
       </c>
@@ -67795,7 +67805,7 @@
       <c r="IU153" s="22"/>
       <c r="IV153" s="22"/>
     </row>
-    <row r="154" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A154" s="28">
         <v>153</v>
       </c>
@@ -68081,7 +68091,7 @@
       <c r="IU154" s="22"/>
       <c r="IV154" s="22"/>
     </row>
-    <row r="155" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A155" s="28">
         <v>154</v>
       </c>
@@ -68367,7 +68377,7 @@
       <c r="IU155" s="22"/>
       <c r="IV155" s="22"/>
     </row>
-    <row r="156" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A156" s="28">
         <v>155</v>
       </c>
@@ -68653,7 +68663,7 @@
       <c r="IU156" s="22"/>
       <c r="IV156" s="22"/>
     </row>
-    <row r="157" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A157" s="28">
         <v>156</v>
       </c>
@@ -68939,7 +68949,7 @@
       <c r="IU157" s="22"/>
       <c r="IV157" s="22"/>
     </row>
-    <row r="158" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A158" s="28">
         <v>157</v>
       </c>
@@ -69225,7 +69235,7 @@
       <c r="IU158" s="22"/>
       <c r="IV158" s="22"/>
     </row>
-    <row r="159" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A159" s="28">
         <v>158</v>
       </c>
@@ -69511,7 +69521,7 @@
       <c r="IU159" s="22"/>
       <c r="IV159" s="22"/>
     </row>
-    <row r="160" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A160" s="28">
         <v>159</v>
       </c>
@@ -69797,7 +69807,7 @@
       <c r="IU160" s="22"/>
       <c r="IV160" s="22"/>
     </row>
-    <row r="161" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A161" s="28">
         <v>160</v>
       </c>
@@ -70083,7 +70093,7 @@
       <c r="IU161" s="22"/>
       <c r="IV161" s="22"/>
     </row>
-    <row r="162" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A162" s="28">
         <v>161</v>
       </c>
@@ -70369,7 +70379,7 @@
       <c r="IU162" s="22"/>
       <c r="IV162" s="22"/>
     </row>
-    <row r="163" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A163" s="28">
         <v>162</v>
       </c>
@@ -70655,7 +70665,7 @@
       <c r="IU163" s="22"/>
       <c r="IV163" s="22"/>
     </row>
-    <row r="164" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A164" s="28">
         <v>163</v>
       </c>
@@ -70941,7 +70951,7 @@
       <c r="IU164" s="22"/>
       <c r="IV164" s="22"/>
     </row>
-    <row r="165" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A165" s="28">
         <v>164</v>
       </c>
@@ -71227,7 +71237,7 @@
       <c r="IU165" s="22"/>
       <c r="IV165" s="22"/>
     </row>
-    <row r="166" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A166" s="28">
         <v>165</v>
       </c>
@@ -71513,7 +71523,7 @@
       <c r="IU166" s="22"/>
       <c r="IV166" s="22"/>
     </row>
-    <row r="167" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A167" s="28">
         <v>166</v>
       </c>
@@ -71799,7 +71809,7 @@
       <c r="IU167" s="22"/>
       <c r="IV167" s="22"/>
     </row>
-    <row r="168" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A168" s="28">
         <v>167</v>
       </c>
@@ -72085,7 +72095,7 @@
       <c r="IU168" s="22"/>
       <c r="IV168" s="22"/>
     </row>
-    <row r="169" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A169" s="28">
         <v>168</v>
       </c>
@@ -72371,7 +72381,7 @@
       <c r="IU169" s="22"/>
       <c r="IV169" s="22"/>
     </row>
-    <row r="170" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A170" s="28">
         <v>169</v>
       </c>
@@ -72657,7 +72667,7 @@
       <c r="IU170" s="22"/>
       <c r="IV170" s="22"/>
     </row>
-    <row r="171" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A171" s="28">
         <v>170</v>
       </c>
@@ -72943,7 +72953,7 @@
       <c r="IU171" s="22"/>
       <c r="IV171" s="22"/>
     </row>
-    <row r="172" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A172" s="28">
         <v>171</v>
       </c>
@@ -73229,7 +73239,7 @@
       <c r="IU172" s="22"/>
       <c r="IV172" s="22"/>
     </row>
-    <row r="173" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A173" s="28">
         <v>172</v>
       </c>
@@ -73515,7 +73525,7 @@
       <c r="IU173" s="22"/>
       <c r="IV173" s="22"/>
     </row>
-    <row r="174" spans="1:256" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A174" s="28">
         <v>173</v>
       </c>
@@ -73801,7 +73811,7 @@
       <c r="IU174" s="22"/>
       <c r="IV174" s="22"/>
     </row>
-    <row r="175" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:256" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A175" s="28">
         <v>17</v>
       </c>
@@ -74088,7 +74098,7 @@
       <c r="IV175" s="22"/>
     </row>
   </sheetData>
-  <sortState ref="A1:XFD174">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:XFD174">
     <sortCondition ref="D1:D174"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -74102,73 +74112,73 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" zoomScaleNormal="73" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12.625" style="1" customWidth="1"/>
-    <col min="10" max="13" width="12.625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.58203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.58203125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12.58203125" style="1" customWidth="1"/>
+    <col min="10" max="13" width="12.58203125" style="3" customWidth="1"/>
+    <col min="14" max="15" width="12.58203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="3" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.58203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="61" t="s">
+    <row r="1" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
     </row>
-    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:18" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="65" t="s">
         <v>1083</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
     </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:18" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="63" t="s">
         <v>1168</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="63" t="s">
         <v>1174</v>
       </c>
       <c r="C3" s="58" t="s">
@@ -74192,47 +74202,47 @@
       <c r="Q3" s="58"/>
       <c r="R3" s="60"/>
     </row>
-    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56" t="s">
+    <row r="4" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63" t="s">
         <v>1173</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="9" t="s">
         <v>791</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>1172</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="62"/>
+      <c r="H4" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>797</v>
       </c>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56" t="s">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="O4" s="56"/>
+      <c r="O4" s="63"/>
       <c r="P4" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="Q4" s="62" t="s">
+      <c r="Q4" s="61" t="s">
         <v>1172</v>
       </c>
-      <c r="R4" s="63"/>
+      <c r="R4" s="62"/>
     </row>
-    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="56"/>
-      <c r="B5" s="56"/>
+    <row r="5" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="16" t="s">
         <v>1158</v>
       </c>
@@ -74282,7 +74292,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="17" t="s">
         <v>716</v>
       </c>
@@ -74352,8 +74362,8 @@
         <v>27085</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="64" t="s">
         <v>789</v>
       </c>
       <c r="B7" s="18" t="s">
@@ -74418,8 +74428,8 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+    <row r="8" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="64"/>
       <c r="B8" s="13" t="s">
         <v>1135</v>
       </c>
@@ -74458,8 +74468,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+    <row r="9" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64"/>
       <c r="B9" s="10" t="s">
         <v>1169</v>
       </c>
@@ -74498,8 +74508,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+    <row r="10" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="64"/>
       <c r="B10" s="10" t="s">
         <v>1125</v>
       </c>
@@ -74518,10 +74528,10 @@
       <c r="I10" s="42"/>
       <c r="J10" s="30"/>
       <c r="K10" s="30"/>
-      <c r="L10" s="65">
+      <c r="L10" s="56">
         <v>906</v>
       </c>
-      <c r="M10" s="65">
+      <c r="M10" s="56">
         <v>2045</v>
       </c>
       <c r="N10" s="39"/>
@@ -74532,8 +74542,8 @@
       <c r="Q10" s="34"/>
       <c r="R10" s="35"/>
     </row>
-    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="64"/>
       <c r="B11" s="10" t="s">
         <v>1170</v>
       </c>
@@ -74560,10 +74570,10 @@
       <c r="K11" s="30">
         <v>43</v>
       </c>
-      <c r="L11" s="65">
+      <c r="L11" s="56">
         <v>2853</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="56">
         <v>6874</v>
       </c>
       <c r="N11" s="39"/>
@@ -74574,8 +74584,8 @@
       <c r="Q11" s="34"/>
       <c r="R11" s="35"/>
     </row>
-    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="64"/>
       <c r="B12" s="10" t="s">
         <v>1153</v>
       </c>
@@ -74606,10 +74616,10 @@
       <c r="K12" s="30">
         <v>4</v>
       </c>
-      <c r="L12" s="64">
+      <c r="L12" s="55">
         <v>149</v>
       </c>
-      <c r="M12" s="64">
+      <c r="M12" s="55">
         <v>295</v>
       </c>
       <c r="N12" s="39">
@@ -74628,8 +74638,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="64"/>
       <c r="B13" s="10" t="s">
         <v>1167</v>
       </c>
@@ -74660,8 +74670,8 @@
       <c r="Q13" s="34"/>
       <c r="R13" s="35"/>
     </row>
-    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="64"/>
       <c r="B14" s="18" t="s">
         <v>792</v>
       </c>
@@ -74726,8 +74736,8 @@
         <v>26890</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="64"/>
       <c r="B15" s="13" t="s">
         <v>1135</v>
       </c>
@@ -74766,8 +74776,8 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="64"/>
       <c r="B16" s="10" t="s">
         <v>1169</v>
       </c>
@@ -74806,8 +74816,8 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="64"/>
       <c r="B17" s="10" t="s">
         <v>1125</v>
       </c>
@@ -74846,8 +74856,8 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="64"/>
       <c r="B18" s="10" t="s">
         <v>1170</v>
       </c>
@@ -74886,8 +74896,8 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+    <row r="19" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="64"/>
       <c r="B19" s="10" t="s">
         <v>1153</v>
       </c>
@@ -74926,8 +74936,8 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
+    <row r="20" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="64"/>
       <c r="B20" s="10" t="s">
         <v>1167</v>
       </c>
@@ -74966,8 +74976,8 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="64"/>
       <c r="B21" s="10" t="s">
         <v>1163</v>
       </c>
@@ -75006,8 +75016,8 @@
         <v>6016</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
+    <row r="22" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="64"/>
       <c r="B22" s="10" t="s">
         <v>1165</v>
       </c>
@@ -75046,8 +75056,8 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+    <row r="23" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="64"/>
       <c r="B23" s="10" t="s">
         <v>1166</v>
       </c>
@@ -75086,8 +75096,8 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+    <row r="24" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="64"/>
       <c r="B24" s="10" t="s">
         <v>1161</v>
       </c>
@@ -75126,8 +75136,8 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+    <row r="25" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="64"/>
       <c r="B25" s="10" t="s">
         <v>1157</v>
       </c>
@@ -75166,8 +75176,8 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+    <row r="26" spans="1:18" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="64"/>
       <c r="B26" s="10" t="s">
         <v>1160</v>
       </c>
@@ -75208,11 +75218,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="A7:A26"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A5"/>
@@ -75222,6 +75227,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.20305556058883667" right="0.14986111223697662" top="0.25777778029441833" bottom="0.16152778267860413" header="3.0833333730697632E-2" footer="0.15333333611488342"/>
